--- a/SectionB/Data_Driven/ChangePassword/SecB_changepass_data.xlsx
+++ b/SectionB/Data_Driven/ChangePassword/SecB_changepass_data.xlsx
@@ -9,14 +9,14 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
@@ -25,6 +25,20 @@
     </font>
     <font>
       <name val="Arial"/>
+      <color theme="1"/>
+      <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
       <color theme="1"/>
       <sz val="10"/>
       <scheme val="minor"/>
@@ -38,7 +52,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -61,13 +75,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,51 +396,73 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col width="14.36328125" customWidth="1" min="1" max="1"/>
+    <col width="22.453125" customWidth="1" min="2" max="2"/>
+    <col width="27.81640625" customWidth="1" min="3" max="3"/>
+    <col width="22.7265625" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>username</t>
+          <t>Username</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>password</t>
+          <t>Old Password</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>expected</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>result</t>
+          <t>New Password</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Confirm</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Result</t>
         </is>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>trungkien</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>123456</v>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+          <t>dat.luongmason</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -399,38 +471,46 @@
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>kien1111</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>23134123</v>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+          <t>abcdef</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>Invalid</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>trungkien</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>23134123</v>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="5" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -439,16 +519,24 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>trungkien</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+          <t>dat.luongmason</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>11111111</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>Invalid</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -457,62 +545,102 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>trungkien1</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+          <t>dat.luongmason</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n">
-        <v>123456</v>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>dat.luongmason</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="6" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>Invalid</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n">
-        <v>321321</v>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>dat.luongmason</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>dat.luongmason</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>dat.luongmason</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>Invalid</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>dat.luongmason</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Invalid</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -521,20 +649,24 @@
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>trungkien</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>abcdef</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+          <t>dat.luongmason</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>12345</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>12345</v>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>Invalid</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -543,38 +675,60 @@
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>testing12345</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>abcdef</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+          <t>dat.luongmason</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>123456789101112000000</t>
+        </is>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>123456789101112000000</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>Invalid</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>abcdef</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>dat.luongmason</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>123456711</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>Invalid</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -583,18 +737,248 @@
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>abcdef</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>123456</v>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>Invalid</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+          <t>dat.luongmason</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>Invalid</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>dat.luongmason</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t>1111111</t>
+        </is>
+      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>1111111</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>Invalid</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>dat.luongmason</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr">
+        <is>
+          <t>11111111</t>
+        </is>
+      </c>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>11111111</t>
+        </is>
+      </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>dat.luongmason</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>11111111</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr">
+        <is>
+          <t>111111111111</t>
+        </is>
+      </c>
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>111111111111</t>
+        </is>
+      </c>
+      <c r="E16" s="9" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>dat.luongmason</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>111111111111</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr">
+        <is>
+          <t>111111111111111</t>
+        </is>
+      </c>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>111111111111111</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>dat.luongmason</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>111111111111111</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr">
+        <is>
+          <t>1111111111111111</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>1111111111111111</t>
+        </is>
+      </c>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>dat.luongmason</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>1111111111111111</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr">
+        <is>
+          <t>11111111111111111</t>
+        </is>
+      </c>
+      <c r="D19" s="8" t="inlineStr">
+        <is>
+          <t>11111111111111111</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>Invalid</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>dat.luongmason</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>1111111111111111</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="D20" s="8" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
@@ -602,5 +986,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>